--- a/natmiOut/OldD0/LR-pairs_lrc2p/Rgmb-Neo1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Rgmb-Neo1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.678474114112</v>
+        <v>4.367553</v>
       </c>
       <c r="H2">
-        <v>3.678474114112</v>
+        <v>13.102659</v>
       </c>
       <c r="I2">
-        <v>0.04869933114150737</v>
+        <v>0.05657159077620311</v>
       </c>
       <c r="J2">
-        <v>0.04869933114150737</v>
+        <v>0.05657159077620311</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.51962784514141</v>
+        <v>2.442429333333334</v>
       </c>
       <c r="N2">
-        <v>1.51962784514141</v>
+        <v>7.327288</v>
       </c>
       <c r="O2">
-        <v>0.05752615838860899</v>
+        <v>0.08913295894744963</v>
       </c>
       <c r="P2">
-        <v>0.05752615838860899</v>
+        <v>0.08913295894744963</v>
       </c>
       <c r="Q2">
-        <v>5.589911691436476</v>
+        <v>10.667439562088</v>
       </c>
       <c r="R2">
-        <v>5.589911691436476</v>
+        <v>96.00695605879201</v>
       </c>
       <c r="S2">
-        <v>0.002801485436665671</v>
+        <v>0.005042393278247232</v>
       </c>
       <c r="T2">
-        <v>0.002801485436665671</v>
+        <v>0.005042393278247232</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.678474114112</v>
+        <v>4.367553</v>
       </c>
       <c r="H3">
-        <v>3.678474114112</v>
+        <v>13.102659</v>
       </c>
       <c r="I3">
-        <v>0.04869933114150737</v>
+        <v>0.05657159077620311</v>
       </c>
       <c r="J3">
-        <v>0.04869933114150737</v>
+        <v>0.05657159077620311</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.8202665710153</v>
+        <v>15.82990933333333</v>
       </c>
       <c r="N3">
-        <v>15.8202665710153</v>
+        <v>47.489728</v>
       </c>
       <c r="O3">
-        <v>0.5988829195411025</v>
+        <v>0.5776898596383203</v>
       </c>
       <c r="P3">
-        <v>0.5988829195411025</v>
+        <v>0.5776898596383203</v>
       </c>
       <c r="Q3">
-        <v>58.19444105983119</v>
+        <v>69.137967998528</v>
       </c>
       <c r="R3">
-        <v>58.19444105983119</v>
+        <v>622.2417119867521</v>
       </c>
       <c r="S3">
-        <v>0.02916519761372486</v>
+        <v>0.03268083433502127</v>
       </c>
       <c r="T3">
-        <v>0.02916519761372486</v>
+        <v>0.03268083433502127</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.678474114112</v>
+        <v>4.367553</v>
       </c>
       <c r="H4">
-        <v>3.678474114112</v>
+        <v>13.102659</v>
       </c>
       <c r="I4">
-        <v>0.04869933114150737</v>
+        <v>0.05657159077620311</v>
       </c>
       <c r="J4">
-        <v>0.04869933114150737</v>
+        <v>0.05657159077620311</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.07639840972263</v>
+        <v>9.129750999999999</v>
       </c>
       <c r="N4">
-        <v>9.07639840972263</v>
+        <v>27.389253</v>
       </c>
       <c r="O4">
-        <v>0.3435909220702886</v>
+        <v>0.3331771814142301</v>
       </c>
       <c r="P4">
-        <v>0.3435909220702886</v>
+        <v>0.3331771814142301</v>
       </c>
       <c r="Q4">
-        <v>33.38729659953201</v>
+        <v>39.87467136930299</v>
       </c>
       <c r="R4">
-        <v>33.38729659953201</v>
+        <v>358.872042323727</v>
       </c>
       <c r="S4">
-        <v>0.01673264809111684</v>
+        <v>0.01884836316293461</v>
       </c>
       <c r="T4">
-        <v>0.01673264809111684</v>
+        <v>0.01884836316293461</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>52.7405745635843</v>
+        <v>53.45120266666667</v>
       </c>
       <c r="H5">
-        <v>52.7405745635843</v>
+        <v>160.353608</v>
       </c>
       <c r="I5">
-        <v>0.6982326436420725</v>
+        <v>0.6923372340884159</v>
       </c>
       <c r="J5">
-        <v>0.6982326436420725</v>
+        <v>0.6923372340884159</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.51962784514141</v>
+        <v>2.442429333333334</v>
       </c>
       <c r="N5">
-        <v>1.51962784514141</v>
+        <v>7.327288</v>
       </c>
       <c r="O5">
-        <v>0.05752615838860899</v>
+        <v>0.08913295894744963</v>
       </c>
       <c r="P5">
-        <v>0.05752615838860899</v>
+        <v>0.08913295894744963</v>
       </c>
       <c r="Q5">
-        <v>80.14604567557947</v>
+        <v>130.5507852950116</v>
       </c>
       <c r="R5">
-        <v>80.14604567557947</v>
+        <v>1174.957067655104</v>
       </c>
       <c r="S5">
-        <v>0.04016664165025104</v>
+        <v>0.06171006626379359</v>
       </c>
       <c r="T5">
-        <v>0.04016664165025104</v>
+        <v>0.06171006626379359</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>52.7405745635843</v>
+        <v>53.45120266666667</v>
       </c>
       <c r="H6">
-        <v>52.7405745635843</v>
+        <v>160.353608</v>
       </c>
       <c r="I6">
-        <v>0.6982326436420725</v>
+        <v>0.6923372340884159</v>
       </c>
       <c r="J6">
-        <v>0.6982326436420725</v>
+        <v>0.6923372340884159</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.8202665710153</v>
+        <v>15.82990933333333</v>
       </c>
       <c r="N6">
-        <v>15.8202665710153</v>
+        <v>47.489728</v>
       </c>
       <c r="O6">
-        <v>0.5988829195411025</v>
+        <v>0.5776898596383203</v>
       </c>
       <c r="P6">
-        <v>0.5988829195411025</v>
+        <v>0.5776898596383203</v>
       </c>
       <c r="Q6">
-        <v>834.3699487044125</v>
+        <v>846.1276919709583</v>
       </c>
       <c r="R6">
-        <v>834.3699487044125</v>
+        <v>7615.149227738624</v>
       </c>
       <c r="S6">
-        <v>0.4181596041432666</v>
+        <v>0.3999561995829199</v>
       </c>
       <c r="T6">
-        <v>0.4181596041432666</v>
+        <v>0.3999561995829199</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>52.7405745635843</v>
+        <v>53.45120266666667</v>
       </c>
       <c r="H7">
-        <v>52.7405745635843</v>
+        <v>160.353608</v>
       </c>
       <c r="I7">
-        <v>0.6982326436420725</v>
+        <v>0.6923372340884159</v>
       </c>
       <c r="J7">
-        <v>0.6982326436420725</v>
+        <v>0.6923372340884159</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.07639840972263</v>
+        <v>9.129750999999999</v>
       </c>
       <c r="N7">
-        <v>9.07639840972263</v>
+        <v>27.389253</v>
       </c>
       <c r="O7">
-        <v>0.3435909220702886</v>
+        <v>0.3331771814142301</v>
       </c>
       <c r="P7">
-        <v>0.3435909220702886</v>
+        <v>0.3331771814142301</v>
       </c>
       <c r="Q7">
-        <v>478.6944670967744</v>
+        <v>487.9961709972026</v>
       </c>
       <c r="R7">
-        <v>478.6944670967744</v>
+        <v>4391.965538974824</v>
       </c>
       <c r="S7">
-        <v>0.2399063978485549</v>
+        <v>0.2306709682417024</v>
       </c>
       <c r="T7">
-        <v>0.2399063978485549</v>
+        <v>0.2306709682417024</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.1153380970076</v>
+        <v>19.38524266666667</v>
       </c>
       <c r="H8">
-        <v>19.1153380970076</v>
+        <v>58.155728</v>
       </c>
       <c r="I8">
-        <v>0.2530680252164202</v>
+        <v>0.251091175135381</v>
       </c>
       <c r="J8">
-        <v>0.2530680252164202</v>
+        <v>0.251091175135381</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.51962784514141</v>
+        <v>2.442429333333334</v>
       </c>
       <c r="N8">
-        <v>1.51962784514141</v>
+        <v>7.327288</v>
       </c>
       <c r="O8">
-        <v>0.05752615838860899</v>
+        <v>0.08913295894744963</v>
       </c>
       <c r="P8">
-        <v>0.05752615838860899</v>
+        <v>0.08913295894744963</v>
       </c>
       <c r="Q8">
-        <v>29.04820004150516</v>
+        <v>47.34708532285156</v>
       </c>
       <c r="R8">
-        <v>29.04820004150516</v>
+        <v>426.1237679056641</v>
       </c>
       <c r="S8">
-        <v>0.01455803130169228</v>
+        <v>0.02238049940540881</v>
       </c>
       <c r="T8">
-        <v>0.01455803130169228</v>
+        <v>0.02238049940540881</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.1153380970076</v>
+        <v>19.38524266666667</v>
       </c>
       <c r="H9">
-        <v>19.1153380970076</v>
+        <v>58.155728</v>
       </c>
       <c r="I9">
-        <v>0.2530680252164202</v>
+        <v>0.251091175135381</v>
       </c>
       <c r="J9">
-        <v>0.2530680252164202</v>
+        <v>0.251091175135381</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.8202665710153</v>
+        <v>15.82990933333333</v>
       </c>
       <c r="N9">
-        <v>15.8202665710153</v>
+        <v>47.489728</v>
       </c>
       <c r="O9">
-        <v>0.5988829195411025</v>
+        <v>0.5776898596383203</v>
       </c>
       <c r="P9">
-        <v>0.5988829195411025</v>
+        <v>0.5776898596383203</v>
       </c>
       <c r="Q9">
-        <v>302.4097442897445</v>
+        <v>306.8666338179982</v>
       </c>
       <c r="R9">
-        <v>302.4097442897445</v>
+        <v>2761.799704361984</v>
       </c>
       <c r="S9">
-        <v>0.1515581177841111</v>
+        <v>0.1450528257203792</v>
       </c>
       <c r="T9">
-        <v>0.1515581177841111</v>
+        <v>0.1450528257203792</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.1153380970076</v>
+        <v>19.38524266666667</v>
       </c>
       <c r="H10">
-        <v>19.1153380970076</v>
+        <v>58.155728</v>
       </c>
       <c r="I10">
-        <v>0.2530680252164202</v>
+        <v>0.251091175135381</v>
       </c>
       <c r="J10">
-        <v>0.2530680252164202</v>
+        <v>0.251091175135381</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.07639840972263</v>
+        <v>9.129750999999999</v>
       </c>
       <c r="N10">
-        <v>9.07639840972263</v>
+        <v>27.389253</v>
       </c>
       <c r="O10">
-        <v>0.3435909220702886</v>
+        <v>0.3331771814142301</v>
       </c>
       <c r="P10">
-        <v>0.3435909220702886</v>
+        <v>0.3331771814142301</v>
       </c>
       <c r="Q10">
-        <v>173.4984243049902</v>
+        <v>176.9824386212426</v>
       </c>
       <c r="R10">
-        <v>173.4984243049902</v>
+        <v>1592.841947591184</v>
       </c>
       <c r="S10">
-        <v>0.08695187613061685</v>
+        <v>0.08365785000959307</v>
       </c>
       <c r="T10">
-        <v>0.08695187613061685</v>
+        <v>0.08365785000959307</v>
       </c>
     </row>
   </sheetData>
